--- a/medicine/Nettoyage et hygiène/Aspiration_centralisée/Aspiration_centralisée.xlsx
+++ b/medicine/Nettoyage et hygiène/Aspiration_centralisée/Aspiration_centralisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aspiration_centralis%C3%A9e</t>
+          <t>Aspiration_centralisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspiration centralisée, aspirateur centralisé ou aspirateur central, est un système d'aspiration basé sur l'installation de conduits (en PVC de 50 mm de diamètre par exemple) anti-statique à l'intérieur même des murs de l'habitation. 
 Les conduits sont liés à des prises d'aspiration réparties dans tout le bâtiment, avec un câblage de basse tension et une pièce de rangement ainsi que des outils les indiquant et à un aspirateur central, généralement localisé dans le garage ou dans une pièce de rangement. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aspiration_centralis%C3%A9e</t>
+          <t>Aspiration_centralisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alors que l'aspirateur a été inventé en 1869 aux États-Unis[réf. nécessaire], l'idée de l'aspiration centralisée s'est au départ heurtée à des problèmes technologiques :
 les moteurs électriques des aspirateurs n'étaient pas assez puissants pour un tel réseau de tuyaux,
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aspiration_centralis%C3%A9e</t>
+          <t>Aspiration_centralisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspirateur est statique, ce qui signifie qu'il est placé dans une pièce, en général le garage, et reste immobile.
 De cet aspirateur partent des tuyaux en PVC vitrifiés d'un diamètre de 50 mm, accompagnés d'un câble électrique basse tension (24 V), le tout étant alors fixé ou encastré dans les murs. Les tuyaux sont reliés les uns aux autres pour former un réseau.
